--- a/AFLogs.xlsx
+++ b/AFLogs.xlsx
@@ -588,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4.13</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="4">
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +840,7 @@
         <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -924,7 +924,7 @@
         <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4.55</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="7">
@@ -1008,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0.48</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -1092,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -1176,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
@@ -1260,7 +1260,7 @@
         <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0.027</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="11">
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="12">
@@ -1428,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0.11</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="14">
@@ -1596,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1848,7 +1848,7 @@
         <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
